--- a/各社財務.xlsx
+++ b/各社財務.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\OperationSotsuron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B14DD-5FDC-43A2-8377-3BEB608AE812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7968D76-B18D-46A7-8BA5-E2E901D6F78A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="105" yWindow="14025" windowWidth="17730" windowHeight="14475" activeTab="2" xr2:uid="{D09CCCAA-909B-4A97-A7C1-9020ECA4A414}"/>
+    <workbookView xWindow="28035" yWindow="9450" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{D09CCCAA-909B-4A97-A7C1-9020ECA4A414}"/>
   </bookViews>
   <sheets>
     <sheet name=" 日信工業(株)【7230】" sheetId="1" r:id="rId1"/>
@@ -684,6 +684,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="614848248"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2399,6 +2400,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="571577840"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5175,16 +5177,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>225517</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>159963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81803</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5658,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0602A9CD-F420-4006-83BE-5E57852BBD69}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5671,7 +5673,7 @@
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -5690,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5788,8 +5790,12 @@
         <f t="shared" si="0"/>
         <v>7.3569857809681879E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="2">
+        <f>AVERAGE(F9:H9)</f>
+        <v>7.6477293476112221E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5805,8 +5811,12 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="2" t="e">
+        <f t="shared" ref="I10:I13" si="1">AVERAGE(F10:H10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5824,15 +5834,19 @@
         <v>8.7277864760428689E-2</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" ref="G11:H11" si="1">C10/C8</f>
+        <f t="shared" ref="G11:H11" si="2">C10/C8</f>
         <v>-6.2320357452144018E-3</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7177045820874951E-2</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>7.7177045820874951E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5.2740958278696411E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5848,8 +5862,12 @@
       <c r="F12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5867,15 +5885,19 @@
         <v>3.8715187170849742E-2</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" ref="G13:H13" si="2">C11/C8</f>
+        <f t="shared" ref="G13:H13" si="3">C11/C8</f>
         <v>-4.6312579361495264E-2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2266955880854938E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2231878967364714E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5889,7 +5911,7 @@
         <v>2280.5100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5903,7 +5925,7 @@
         <v>216005</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6317,7 +6339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE8B32-A6BF-4477-9C52-67FC00CC05CB}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
